--- a/code5/log/Accuracy2.xlsx
+++ b/code5/log/Accuracy2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2023mem\Python-PJ\fl-experiment\code5\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCE3FBA-A38D-4684-9413-60350A6CF7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF0FE9D-16DC-499E-A83B-1AEDDA0402D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -793,6 +793,158 @@
         <v>0.82542694497153701</v>
       </c>
     </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>265</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.81024667931688799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>270</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.81024667931688799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>275</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.80834914611005604</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>280</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.80834914611005604</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>285</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.80834914611005604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>290</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.80834914611005604</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>295</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.80834914611005604</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>300</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.81024667931688799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>305</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.80834914611005604</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>310</v>
+      </c>
+      <c r="B64">
+        <v>0.81024667900000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>315</v>
+      </c>
+      <c r="B65">
+        <v>0.81024667900000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>320</v>
+      </c>
+      <c r="B66">
+        <v>0.81024667900000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>325</v>
+      </c>
+      <c r="B67">
+        <v>0.81593927899999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>330</v>
+      </c>
+      <c r="B68">
+        <v>0.81593927899999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>335</v>
+      </c>
+      <c r="B69">
+        <v>0.81973434499999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>340</v>
+      </c>
+      <c r="B70">
+        <v>0.82163187900000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>345</v>
+      </c>
+      <c r="B71">
+        <v>0.82163187900000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>350</v>
+      </c>
+      <c r="B72">
+        <v>0.82922201100000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>355</v>
+      </c>
+      <c r="B73">
+        <v>0.82542694500000002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
